--- a/medicine/Handicap/Association_suisse_des_paraplégiques/Association_suisse_des_paraplégiques.xlsx
+++ b/medicine/Handicap/Association_suisse_des_paraplégiques/Association_suisse_des_paraplégiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_suisse_des_parapl%C3%A9giques</t>
+          <t>Association_suisse_des_paraplégiques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Association suisse des paraplégiques (ASP) est une organisation suisse d'entraide des paralysés médullaires, basée à Nottwil.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_suisse_des_parapl%C3%A9giques</t>
+          <t>Association_suisse_des_paraplégiques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Fondée le 27 avril 1980 par Guido A. Zäch, l'association s'engage pour la cause des paraplégiques et tétraplégiques. Au moment de sa fondation, l'ASP regroupait 7 clubs en fauteuil roulant, à savoir  Bâle, Bienne, Kriens, Uster, Saint-Gall, Wetzikon et Zurich. En 2011, l'association compte 26 clubs en fauteuil roulant, répartis dans toute la Suisse, ainsi que 4 000 membres actifs et plus de 9 000 membres passifs.
 L'Association suisse des paraplégiques soutient les 26 clubs en fauteuil roulant, qui sont gérés bénévolement, sur le plan financier et administratif. L'assemblée des délégués, organe suprême de l'association, est constituée par 52 délégués (2 par club). L'association est structurée en cinq unités organisationnelles :
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Association_suisse_des_parapl%C3%A9giques</t>
+          <t>Association_suisse_des_paraplégiques</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1966 : Fondation du RC Kriens (dénommé à présent Pilatus Dragons pour la section handibasket)
 1969 : Fondation du RC Uster
@@ -583,7 +599,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Association_suisse_des_parapl%C3%A9giques</t>
+          <t>Association_suisse_des_paraplégiques</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -602,6 +618,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
